--- a/Code/Results/Cases/Case_4_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_17/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,78 +406,81 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_4_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_17/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,78 +409,84 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_4_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_17/res_line/loading_percent.xlsx
@@ -420,120 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>12.14578859185824</v>
+      </c>
+      <c r="C2">
+        <v>6.168798594207805</v>
+      </c>
+      <c r="D2">
+        <v>10.94309479349271</v>
+      </c>
+      <c r="E2">
+        <v>11.05325321613966</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2.131744656212861</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>5.479807227042407</v>
+      </c>
+      <c r="K2">
+        <v>10.59115867218821</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>11.98149504956885</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>23.00727062736357</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>11.31843700456637</v>
+      </c>
+      <c r="C3">
+        <v>5.847628408317878</v>
+      </c>
+      <c r="D3">
+        <v>10.60161639888513</v>
+      </c>
+      <c r="E3">
+        <v>10.81067697119883</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2.138017322251627</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>5.492118420300818</v>
+      </c>
+      <c r="K3">
+        <v>9.939960296380345</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>11.54651809965186</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>22.86110723087513</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>10.78134814426891</v>
+      </c>
+      <c r="C4">
+        <v>5.641288355317197</v>
+      </c>
+      <c r="D4">
+        <v>10.39334703110441</v>
+      </c>
+      <c r="E4">
+        <v>10.66580698556209</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2.14198276587778</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>5.501575620842179</v>
+      </c>
+      <c r="K4">
+        <v>9.518791859670557</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>11.27754688427205</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>22.78632267853184</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>10.55510949852819</v>
+      </c>
+      <c r="C5">
+        <v>5.55493750191406</v>
+      </c>
+      <c r="D5">
+        <v>10.30893584343385</v>
+      </c>
+      <c r="E5">
+        <v>10.60784287064728</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2.143628221339066</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>5.505897152212114</v>
+      </c>
+      <c r="K5">
+        <v>9.341802186546253</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>11.16761915504369</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>22.75949787202236</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>10.51709598930678</v>
+      </c>
+      <c r="C6">
+        <v>5.54046332396766</v>
+      </c>
+      <c r="D6">
+        <v>10.29495050079964</v>
+      </c>
+      <c r="E6">
+        <v>10.59828405565341</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2.143903253739562</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>5.506642708474355</v>
+      </c>
+      <c r="K6">
+        <v>9.312089766467523</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>11.14935127064606</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>22.75526079070849</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>10.77832692627395</v>
+      </c>
+      <c r="C7">
+        <v>5.640132920366614</v>
+      </c>
+      <c r="D7">
+        <v>10.39220662146889</v>
+      </c>
+      <c r="E7">
+        <v>10.66502086062659</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2.142004836520944</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>5.501632021525929</v>
+      </c>
+      <c r="K7">
+        <v>9.516426605490233</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>11.27606543817515</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>22.78594627872976</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>11.86652199532051</v>
+      </c>
+      <c r="C8">
+        <v>6.059972859186863</v>
+      </c>
+      <c r="D8">
+        <v>10.82512556987728</v>
+      </c>
+      <c r="E8">
+        <v>10.96879629160335</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2.133884328901304</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>5.483652267625478</v>
+      </c>
+      <c r="K8">
+        <v>10.37105126763319</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>11.83199731364935</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>22.95370248391283</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>13.7722109306994</v>
+      </c>
+      <c r="C9">
+        <v>6.809793640340729</v>
+      </c>
+      <c r="D9">
+        <v>11.68079793181001</v>
+      </c>
+      <c r="E9">
+        <v>11.59474058013168</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2.118824313628831</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>5.463907239126288</v>
+      </c>
+      <c r="K9">
+        <v>11.87811510538858</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>12.90106847163172</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>23.40620008880792</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>15.0368601662508</v>
+      </c>
+      <c r="C10">
+        <v>7.315197428564978</v>
+      </c>
+      <c r="D10">
+        <v>12.30834632637055</v>
+      </c>
+      <c r="E10">
+        <v>12.07041878867448</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2.108226690391602</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>5.45951502907158</v>
+      </c>
+      <c r="K10">
+        <v>12.88361157091497</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>13.6666820739128</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>23.8203704962282</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>15.58360943961647</v>
+      </c>
+      <c r="C11">
+        <v>7.535239096544616</v>
+      </c>
+      <c r="D11">
+        <v>12.59270385093803</v>
+      </c>
+      <c r="E11">
+        <v>12.28975420818596</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2.103492636087131</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>5.459866114949244</v>
+      </c>
+      <c r="K11">
+        <v>13.31935384915096</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>14.0095422170591</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>24.02785954423512</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>15.78661613634507</v>
+      </c>
+      <c r="C12">
+        <v>7.617151158378584</v>
+      </c>
+      <c r="D12">
+        <v>12.70016319051499</v>
+      </c>
+      <c r="E12">
+        <v>12.3731994904957</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2.101711185181185</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>5.460350347557292</v>
+      </c>
+      <c r="K12">
+        <v>13.48128392155052</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>14.13852273334773</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>24.10928036545844</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>15.74307334322437</v>
+      </c>
+      <c r="C13">
+        <v>7.599572614705741</v>
+      </c>
+      <c r="D13">
+        <v>12.67703053729291</v>
+      </c>
+      <c r="E13">
+        <v>12.35521131895169</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2.10209437399992</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>5.460230212793392</v>
+      </c>
+      <c r="K13">
+        <v>13.44654550711451</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>14.11078341367846</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>24.09161653420493</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>15.60039138758504</v>
+      </c>
+      <c r="C14">
+        <v>7.542006313774856</v>
+      </c>
+      <c r="D14">
+        <v>12.60154931792386</v>
+      </c>
+      <c r="E14">
+        <v>12.29661171555025</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>2.103345857478693</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>5.459898832759089</v>
+      </c>
+      <c r="K14">
+        <v>13.33273733789909</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>14.02017098380169</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>24.03450037721442</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>15.51247116427648</v>
+      </c>
+      <c r="C15">
+        <v>7.506561562556842</v>
+      </c>
+      <c r="D15">
+        <v>12.55528458243932</v>
+      </c>
+      <c r="E15">
+        <v>12.26076729499863</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>2.104113851101654</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>5.459742014069237</v>
+      </c>
+      <c r="K15">
+        <v>13.26262721327476</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>13.96455524174744</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>23.99988926491041</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>15.00056026045851</v>
+      </c>
+      <c r="C16">
+        <v>7.300619003859557</v>
+      </c>
+      <c r="D16">
+        <v>12.28973499830346</v>
+      </c>
+      <c r="E16">
+        <v>12.05614078346627</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2.108537714477233</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>5.459540490062629</v>
+      </c>
+      <c r="K16">
+        <v>12.85470207369639</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>13.64415959820062</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>23.80720356813356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>14.67925658039447</v>
+      </c>
+      <c r="C17">
+        <v>7.171754886988252</v>
+      </c>
+      <c r="D17">
+        <v>12.12649615910737</v>
+      </c>
+      <c r="E17">
+        <v>11.93133630178202</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>2.111272992994114</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>5.46002788007716</v>
+      </c>
+      <c r="K17">
+        <v>12.59893066269034</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>13.44616110677626</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>23.69395928079052</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>14.4917599658218</v>
+      </c>
+      <c r="C18">
+        <v>7.096706000065785</v>
+      </c>
+      <c r="D18">
+        <v>12.03250315010823</v>
+      </c>
+      <c r="E18">
+        <v>11.85983126521662</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>2.112854509054746</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>5.460528473321116</v>
+      </c>
+      <c r="K18">
+        <v>12.44977595539358</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>13.33177067408741</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>23.63061389445814</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>14.42781254859875</v>
+      </c>
+      <c r="C19">
+        <v>7.071135967798432</v>
+      </c>
+      <c r="D19">
+        <v>12.00066318361991</v>
+      </c>
+      <c r="E19">
+        <v>11.83567003855395</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>2.113391437988845</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>5.46073539707179</v>
+      </c>
+      <c r="K19">
+        <v>12.39892296836366</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>13.29295548506352</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>23.60947040811875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>14.71373794562372</v>
+      </c>
+      <c r="C20">
+        <v>7.185568880263621</v>
+      </c>
+      <c r="D20">
+        <v>12.14388427850267</v>
+      </c>
+      <c r="E20">
+        <v>11.94459333642759</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2.110980972243466</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>5.459953105374495</v>
+      </c>
+      <c r="K20">
+        <v>12.62636901598201</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>13.46729143577251</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>23.70582833422126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>15.64240948489154</v>
+      </c>
+      <c r="C21">
+        <v>7.558953202225636</v>
+      </c>
+      <c r="D21">
+        <v>12.62372638776205</v>
+      </c>
+      <c r="E21">
+        <v>12.31381357322743</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>2.102977972098545</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>5.4599865219849</v>
+      </c>
+      <c r="K21">
+        <v>13.3662486989195</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>14.04680971091988</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>24.05119860914584</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>16.22586349436049</v>
+      </c>
+      <c r="C22">
+        <v>7.794752384641594</v>
+      </c>
+      <c r="D22">
+        <v>12.93602565909283</v>
+      </c>
+      <c r="E22">
+        <v>12.55736819971182</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>2.097812366082736</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>5.462062752499479</v>
+      </c>
+      <c r="K22">
+        <v>13.83189544153513</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>14.42056284939982</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>24.29357481314623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>15.916588249367</v>
+      </c>
+      <c r="C23">
+        <v>7.669651440101275</v>
+      </c>
+      <c r="D23">
+        <v>12.76948168974773</v>
+      </c>
+      <c r="E23">
+        <v>12.42718307320034</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>2.100563857874018</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>5.460761987679886</v>
+      </c>
+      <c r="K23">
+        <v>13.58499510362797</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>14.22156093200274</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>24.16265504127865</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>14.69815756865374</v>
+      </c>
+      <c r="C24">
+        <v>7.179326574430675</v>
+      </c>
+      <c r="D24">
+        <v>12.13602355611985</v>
+      </c>
+      <c r="E24">
+        <v>11.93859905975894</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>2.111112966797188</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>5.459986225574188</v>
+      </c>
+      <c r="K24">
+        <v>12.61397070627837</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>13.45774014774259</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>23.7004568603094</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>13.28073508943702</v>
+      </c>
+      <c r="C25">
+        <v>6.614913584645367</v>
+      </c>
+      <c r="D25">
+        <v>11.44917201976289</v>
+      </c>
+      <c r="E25">
+        <v>11.42244998587086</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2.122811867956693</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>5.467522113348274</v>
+      </c>
+      <c r="K25">
+        <v>11.48839714191981</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>12.61489905448814</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>23.26988983445402</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_17/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.14578859185824</v>
+        <v>11.38889587862907</v>
       </c>
       <c r="C2">
-        <v>6.168798594207805</v>
+        <v>3.716003891676869</v>
       </c>
       <c r="D2">
-        <v>10.94309479349271</v>
+        <v>14.84364476103998</v>
       </c>
       <c r="E2">
-        <v>11.05325321613966</v>
+        <v>16.07547394871409</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.131744656212861</v>
+        <v>3.710974184978771</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.479807227042407</v>
+        <v>9.375466445901596</v>
       </c>
       <c r="K2">
-        <v>10.59115867218821</v>
+        <v>10.89353166082071</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>11.98149504956885</v>
+        <v>17.22417801385992</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23.00727062736357</v>
+        <v>32.36829310336017</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.31843700456637</v>
+        <v>11.21319684670871</v>
       </c>
       <c r="C3">
-        <v>5.847628408317878</v>
+        <v>3.591047251481954</v>
       </c>
       <c r="D3">
-        <v>10.60161639888513</v>
+        <v>14.81885661376734</v>
       </c>
       <c r="E3">
-        <v>10.81067697119883</v>
+        <v>16.07365167997235</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.138017322251627</v>
+        <v>3.713277748980144</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.492118420300818</v>
+        <v>9.392550704591406</v>
       </c>
       <c r="K3">
-        <v>9.939960296380345</v>
+        <v>10.7896080613981</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>11.54651809965186</v>
+        <v>17.19165856557897</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.86110723087513</v>
+        <v>32.4132195160288</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.78134814426891</v>
+        <v>11.1067461828113</v>
       </c>
       <c r="C4">
-        <v>5.641288355317197</v>
+        <v>3.512874574355285</v>
       </c>
       <c r="D4">
-        <v>10.39334703110441</v>
+        <v>14.80658339563792</v>
       </c>
       <c r="E4">
-        <v>10.66580698556209</v>
+        <v>16.07540778604723</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.14198276587778</v>
+        <v>3.71476705038077</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.501575620842179</v>
+        <v>9.403936452845732</v>
       </c>
       <c r="K4">
-        <v>9.518791859670557</v>
+        <v>10.72769280830856</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.27754688427205</v>
+        <v>17.17480009864125</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.78632267853184</v>
+        <v>32.44647363786685</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.55510949852819</v>
+        <v>11.06378476630651</v>
       </c>
       <c r="C5">
-        <v>5.55493750191406</v>
+        <v>3.480708416683072</v>
       </c>
       <c r="D5">
-        <v>10.30893584343385</v>
+        <v>14.80232664565496</v>
       </c>
       <c r="E5">
-        <v>10.60784287064728</v>
+        <v>16.07684741524767</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.143628221339066</v>
+        <v>3.715392849671134</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.505897152212114</v>
+        <v>9.408801848822135</v>
       </c>
       <c r="K5">
-        <v>9.341802186546253</v>
+        <v>10.70296511125361</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.16761915504369</v>
+        <v>17.16871729102778</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.75949787202236</v>
+        <v>32.46144858752542</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.51709598930678</v>
+        <v>11.05667801538048</v>
       </c>
       <c r="C6">
-        <v>5.54046332396766</v>
+        <v>3.475350187172312</v>
       </c>
       <c r="D6">
-        <v>10.29495050079964</v>
+        <v>14.80166488921165</v>
       </c>
       <c r="E6">
-        <v>10.59828405565341</v>
+        <v>16.07713021726285</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.143903253739562</v>
+        <v>3.715497906306357</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.506642708474355</v>
+        <v>9.409623379803206</v>
       </c>
       <c r="K6">
-        <v>9.312089766467523</v>
+        <v>10.69889026136702</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.14935127064606</v>
+        <v>17.16775493586971</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.75526079070849</v>
+        <v>32.46402108790974</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.77832692627395</v>
+        <v>11.10616502000933</v>
       </c>
       <c r="C7">
-        <v>5.640132920366614</v>
+        <v>3.512441951306355</v>
       </c>
       <c r="D7">
-        <v>10.39220662146889</v>
+        <v>14.80652296796795</v>
       </c>
       <c r="E7">
-        <v>10.66502086062659</v>
+        <v>16.07542426876808</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.142004836520944</v>
+        <v>3.71477541353443</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.501632021525929</v>
+        <v>9.404001155366048</v>
       </c>
       <c r="K7">
-        <v>9.516426605490233</v>
+        <v>10.7273572493128</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.27606543817515</v>
+        <v>17.17471486983081</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.78594627872976</v>
+        <v>32.44666983388285</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.86652199532051</v>
+        <v>11.32805350569116</v>
       </c>
       <c r="C8">
-        <v>6.059972859186863</v>
+        <v>3.673250652417956</v>
       </c>
       <c r="D8">
-        <v>10.82512556987728</v>
+        <v>14.8344885798215</v>
       </c>
       <c r="E8">
-        <v>10.96879629160335</v>
+        <v>16.07424965559794</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.133884328901304</v>
+        <v>3.711752944771663</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.483652267625478</v>
+        <v>9.38117133696986</v>
       </c>
       <c r="K8">
-        <v>10.37105126763319</v>
+        <v>10.85732209007979</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>11.83199731364935</v>
+        <v>17.21232357142484</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.95370248391283</v>
+        <v>32.3826060309741</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.7722109306994</v>
+        <v>11.77193364363671</v>
       </c>
       <c r="C9">
-        <v>6.809793640340729</v>
+        <v>3.974948610965545</v>
       </c>
       <c r="D9">
-        <v>11.68079793181001</v>
+        <v>14.9125246994267</v>
       </c>
       <c r="E9">
-        <v>11.59474058013168</v>
+        <v>16.09469969484258</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.118824313628831</v>
+        <v>3.706417405147555</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.463907239126288</v>
+        <v>9.3434969632897</v>
       </c>
       <c r="K9">
-        <v>11.87811510538858</v>
+        <v>11.12598849270929</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>12.90106847163172</v>
+        <v>17.31047492002664</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.40620008880792</v>
+        <v>32.30203562693985</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.0368601662508</v>
+        <v>12.09996297095863</v>
       </c>
       <c r="C10">
-        <v>7.315197428564978</v>
+        <v>4.185722058014568</v>
       </c>
       <c r="D10">
-        <v>12.30834632637055</v>
+        <v>14.98371486751316</v>
       </c>
       <c r="E10">
-        <v>12.07041878867448</v>
+        <v>16.12350015811042</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.108226690391602</v>
+        <v>3.702854045269906</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.45951502907158</v>
+        <v>9.320123727700008</v>
       </c>
       <c r="K10">
-        <v>12.88361157091497</v>
+        <v>11.33010986137211</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>13.6666820739128</v>
+        <v>17.39707270339809</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.8203704962282</v>
+        <v>32.27040010031754</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.58360943961647</v>
+        <v>12.24890074890502</v>
       </c>
       <c r="C11">
-        <v>7.535239096544616</v>
+        <v>4.278790876109453</v>
       </c>
       <c r="D11">
-        <v>12.59270385093803</v>
+        <v>15.01903784427362</v>
       </c>
       <c r="E11">
-        <v>12.28975420818596</v>
+        <v>16.1395663486052</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.103492636087131</v>
+        <v>3.701309587504589</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.459866114949244</v>
+        <v>9.310421616238227</v>
       </c>
       <c r="K11">
-        <v>13.31935384915096</v>
+        <v>11.4240658845577</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.0095422170591</v>
+        <v>17.43951900390551</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.02785954423512</v>
+        <v>32.26200540798185</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.78661613634507</v>
+        <v>12.30520201686902</v>
       </c>
       <c r="C12">
-        <v>7.617151158378584</v>
+        <v>4.313596820219392</v>
       </c>
       <c r="D12">
-        <v>12.70016319051499</v>
+        <v>15.03282921612019</v>
       </c>
       <c r="E12">
-        <v>12.3731994904957</v>
+        <v>16.14607359257806</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.101711185181185</v>
+        <v>3.700735683117044</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.460350347557292</v>
+        <v>9.306881159404567</v>
       </c>
       <c r="K12">
-        <v>13.48128392155052</v>
+        <v>11.45977197557943</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.13852273334773</v>
+        <v>17.45602233183083</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>24.10928036545844</v>
+        <v>32.25968920909016</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.74307334322437</v>
+        <v>12.29308179101684</v>
       </c>
       <c r="C13">
-        <v>7.599572614705741</v>
+        <v>4.306120661744369</v>
       </c>
       <c r="D13">
-        <v>12.67703053729291</v>
+        <v>15.02984064573825</v>
       </c>
       <c r="E13">
-        <v>12.35521131895169</v>
+        <v>16.14465336502556</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.10209437399992</v>
+        <v>3.700858797672261</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.460230212793392</v>
+        <v>9.307637726188771</v>
       </c>
       <c r="K13">
-        <v>13.44654550711451</v>
+        <v>11.45207687764618</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.11078341367846</v>
+        <v>17.45244907858869</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>24.09161653420493</v>
+        <v>32.26014967318405</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.60039138758504</v>
+        <v>12.25353497784775</v>
       </c>
       <c r="C14">
-        <v>7.542006313774856</v>
+        <v>4.281663317789121</v>
       </c>
       <c r="D14">
-        <v>12.60154931792386</v>
+        <v>15.02016418801641</v>
       </c>
       <c r="E14">
-        <v>12.29661171555025</v>
+        <v>16.14009323779398</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.103345857478693</v>
+        <v>3.70126215295111</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.459898832759089</v>
+        <v>9.310127666355992</v>
       </c>
       <c r="K14">
-        <v>13.33273733789909</v>
+        <v>11.42700107944392</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.02017098380169</v>
+        <v>17.44086818217635</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.03450037721442</v>
+        <v>32.26179756235351</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.51247116427648</v>
+        <v>12.22929695365952</v>
       </c>
       <c r="C15">
-        <v>7.506561562556842</v>
+        <v>4.266624647841448</v>
       </c>
       <c r="D15">
-        <v>12.55528458243932</v>
+        <v>15.01429094372939</v>
       </c>
       <c r="E15">
-        <v>12.26076729499863</v>
+        <v>16.13735506290011</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.104113851101654</v>
+        <v>3.701510643804815</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.459742014069237</v>
+        <v>9.311670206764983</v>
       </c>
       <c r="K15">
-        <v>13.26262721327476</v>
+        <v>11.41165704219113</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>13.96455524174744</v>
+        <v>17.43383024640018</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.99988926491041</v>
+        <v>32.26291929521402</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.00056026045851</v>
+        <v>12.09021886546288</v>
       </c>
       <c r="C16">
-        <v>7.300619003859557</v>
+        <v>4.179580303778765</v>
       </c>
       <c r="D16">
-        <v>12.28973499830346</v>
+        <v>14.98146495047688</v>
       </c>
       <c r="E16">
-        <v>12.05614078346627</v>
+        <v>16.12250960429372</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.108537714477233</v>
+        <v>3.70295651436146</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.459540490062629</v>
+        <v>9.320776483348126</v>
       </c>
       <c r="K16">
-        <v>12.85470207369639</v>
+        <v>11.32398908090351</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>13.64415959820062</v>
+        <v>17.39435939556072</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.80720356813356</v>
+        <v>32.27106942053324</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.67925658039447</v>
+        <v>12.00478468037548</v>
       </c>
       <c r="C17">
-        <v>7.171754886988252</v>
+        <v>4.125436434038006</v>
       </c>
       <c r="D17">
-        <v>12.12649615910737</v>
+        <v>14.96207487445965</v>
       </c>
       <c r="E17">
-        <v>11.93133630178202</v>
+        <v>16.11415971035294</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.111272992994114</v>
+        <v>3.7038630702148</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.46002788007716</v>
+        <v>9.326601010453961</v>
       </c>
       <c r="K17">
-        <v>12.59893066269034</v>
+        <v>11.27046716032087</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.44616110677626</v>
+        <v>17.37092081859801</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.69395928079052</v>
+        <v>32.27760550352881</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.4917599658218</v>
+        <v>11.95562173639777</v>
       </c>
       <c r="C18">
-        <v>7.096706000065785</v>
+        <v>4.094031230397876</v>
       </c>
       <c r="D18">
-        <v>12.03250315010823</v>
+        <v>14.95119923897242</v>
       </c>
       <c r="E18">
-        <v>11.85983126521662</v>
+        <v>16.10963632680219</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.112854509054746</v>
+        <v>3.704391704147791</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.460528473321116</v>
+        <v>9.330038723474498</v>
       </c>
       <c r="K18">
-        <v>12.44977595539358</v>
+        <v>11.23978818773919</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.33177067408741</v>
+        <v>17.35772746811881</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>23.63061389445814</v>
+        <v>32.28192930062975</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.42781254859875</v>
+        <v>11.93897375948886</v>
       </c>
       <c r="C19">
-        <v>7.071135967798432</v>
+        <v>4.083353842766338</v>
       </c>
       <c r="D19">
-        <v>12.00066318361991</v>
+        <v>14.94756472471475</v>
       </c>
       <c r="E19">
-        <v>11.83567003855395</v>
+        <v>16.10815283466248</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.113391437988845</v>
+        <v>3.70457193006694</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.46073539707179</v>
+        <v>9.331217727808788</v>
       </c>
       <c r="K19">
-        <v>12.39892296836366</v>
+        <v>11.22941987420043</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.29295548506352</v>
+        <v>17.35331014228864</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.60947040811875</v>
+        <v>32.283490184496</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.71373794562372</v>
+        <v>12.01388214519586</v>
       </c>
       <c r="C20">
-        <v>7.185568880263621</v>
+        <v>4.131227618318841</v>
       </c>
       <c r="D20">
-        <v>12.14388427850267</v>
+        <v>14.96411036060302</v>
       </c>
       <c r="E20">
-        <v>11.94459333642759</v>
+        <v>16.11501968961114</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.110980972243466</v>
+        <v>3.703765820315063</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.459953105374495</v>
+        <v>9.325971915454247</v>
       </c>
       <c r="K20">
-        <v>12.62636901598201</v>
+        <v>11.27615397611395</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.46729143577251</v>
+        <v>17.37338616299705</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>23.70582833422126</v>
+        <v>32.27685130733816</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.64240948489154</v>
+        <v>12.26515394812479</v>
       </c>
       <c r="C21">
-        <v>7.558953202225636</v>
+        <v>4.288859139498731</v>
       </c>
       <c r="D21">
-        <v>12.62372638776205</v>
+        <v>15.02299518626428</v>
       </c>
       <c r="E21">
-        <v>12.31381357322743</v>
+        <v>16.14142119435364</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.102977972098545</v>
+        <v>3.701143381048374</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.4599865219849</v>
+        <v>9.30939268906606</v>
       </c>
       <c r="K21">
-        <v>13.3662486989195</v>
+        <v>11.43436325090003</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.04680971091988</v>
+        <v>17.44425818183507</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.05119860914584</v>
+        <v>32.26129012286327</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.22586349436049</v>
+        <v>12.42877694322916</v>
       </c>
       <c r="C22">
-        <v>7.794752384641594</v>
+        <v>4.389319605849402</v>
       </c>
       <c r="D22">
-        <v>12.93602565909283</v>
+        <v>15.06389696215117</v>
       </c>
       <c r="E22">
-        <v>12.55736819971182</v>
+        <v>16.16114193840687</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.097812366082736</v>
+        <v>3.699493253998253</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.462062752499479</v>
+        <v>9.299335344251949</v>
       </c>
       <c r="K22">
-        <v>13.83189544153513</v>
+        <v>11.5384879895218</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.42056284939982</v>
+        <v>17.49307795654217</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.29357481314623</v>
+        <v>32.25614832211069</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.916588249367</v>
+        <v>12.34152134377759</v>
       </c>
       <c r="C23">
-        <v>7.669651440101275</v>
+        <v>4.335946104749288</v>
       </c>
       <c r="D23">
-        <v>12.76948168974773</v>
+        <v>15.04184825714446</v>
       </c>
       <c r="E23">
-        <v>12.42718307320034</v>
+        <v>16.15039206189229</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.100563857874018</v>
+        <v>3.700368139933135</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.460761987679886</v>
+        <v>9.304632032093298</v>
       </c>
       <c r="K23">
-        <v>13.58499510362797</v>
+        <v>11.48285850675721</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.22156093200274</v>
+        <v>17.46679624574451</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>24.16265504127865</v>
+        <v>32.25843246878387</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.69815756865374</v>
+        <v>12.00976931927395</v>
       </c>
       <c r="C24">
-        <v>7.179326574430675</v>
+        <v>4.128610284713764</v>
       </c>
       <c r="D24">
-        <v>12.13602355611985</v>
+        <v>14.96318926960546</v>
       </c>
       <c r="E24">
-        <v>11.93859905975894</v>
+        <v>16.1146300296883</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.111112966797188</v>
+        <v>3.703809763805444</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.459986225574188</v>
+        <v>9.326256051693914</v>
       </c>
       <c r="K24">
-        <v>12.61397070627837</v>
+        <v>11.27358267931483</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.45774014774259</v>
+        <v>17.37227070232522</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.7004568603094</v>
+        <v>32.27719051598276</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.28073508943702</v>
+        <v>11.65127216205544</v>
       </c>
       <c r="C25">
-        <v>6.614913584645367</v>
+        <v>3.895074428011268</v>
       </c>
       <c r="D25">
-        <v>11.44917201976289</v>
+        <v>14.88895759186971</v>
       </c>
       <c r="E25">
-        <v>11.42244998587086</v>
+        <v>16.08673998072567</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.122811867956693</v>
+        <v>3.7077978934371</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.467522113348274</v>
+        <v>9.352931296220177</v>
       </c>
       <c r="K25">
-        <v>11.48839714191981</v>
+        <v>11.05200118723627</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.61489905448814</v>
+        <v>17.28134798081161</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>23.26988983445402</v>
+        <v>32.31899753492481</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_17/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.38889587862907</v>
+        <v>12.14578859185833</v>
       </c>
       <c r="C2">
-        <v>3.716003891676869</v>
+        <v>6.16879859420768</v>
       </c>
       <c r="D2">
-        <v>14.84364476103998</v>
+        <v>10.94309479349259</v>
       </c>
       <c r="E2">
-        <v>16.07547394871409</v>
+        <v>11.05325321613944</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.710974184978771</v>
+        <v>2.131744656212727</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.375466445901596</v>
+        <v>5.479807227042373</v>
       </c>
       <c r="K2">
-        <v>10.89353166082071</v>
+        <v>10.59115867218827</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.22417801385992</v>
+        <v>11.98149504956874</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>32.36829310336017</v>
+        <v>23.00727062736334</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.21319684670871</v>
+        <v>11.31843700456634</v>
       </c>
       <c r="C3">
-        <v>3.591047251481954</v>
+        <v>5.847628408317799</v>
       </c>
       <c r="D3">
-        <v>14.81885661376734</v>
+        <v>10.60161639888531</v>
       </c>
       <c r="E3">
-        <v>16.07365167997235</v>
+        <v>10.81067697119894</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.713277748980144</v>
+        <v>2.138017322251626</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.392550704591406</v>
+        <v>5.49211842030082</v>
       </c>
       <c r="K3">
-        <v>10.7896080613981</v>
+        <v>9.939960296380304</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.19165856557897</v>
+        <v>11.54651809965193</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>32.4132195160288</v>
+        <v>22.86110723087522</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.1067461828113</v>
+        <v>10.78134814426897</v>
       </c>
       <c r="C4">
-        <v>3.512874574355285</v>
+        <v>5.641288355316983</v>
       </c>
       <c r="D4">
-        <v>14.80658339563792</v>
+        <v>10.39334703110437</v>
       </c>
       <c r="E4">
-        <v>16.07540778604723</v>
+        <v>10.66580698556208</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.71476705038077</v>
+        <v>2.141982765877781</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.403936452845732</v>
+        <v>5.501575620842177</v>
       </c>
       <c r="K4">
-        <v>10.72769280830856</v>
+        <v>9.518791859670559</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.17480009864125</v>
+        <v>11.27754688427203</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>32.44647363786685</v>
+        <v>22.78632267853187</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.06378476630651</v>
+        <v>10.5551094985282</v>
       </c>
       <c r="C5">
-        <v>3.480708416683072</v>
+        <v>5.554937501913946</v>
       </c>
       <c r="D5">
-        <v>14.80232664565496</v>
+        <v>10.30893584343383</v>
       </c>
       <c r="E5">
-        <v>16.07684741524767</v>
+        <v>10.60784287064713</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.715392849671134</v>
+        <v>2.143628221338798</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.408801848822135</v>
+        <v>5.505897152211928</v>
       </c>
       <c r="K5">
-        <v>10.70296511125361</v>
+        <v>9.341802186546193</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.16871729102778</v>
+        <v>11.16761915504367</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>32.46144858752542</v>
+        <v>22.75949787202245</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.05667801538048</v>
+        <v>10.51709598930682</v>
       </c>
       <c r="C6">
-        <v>3.475350187172312</v>
+        <v>5.540463323967585</v>
       </c>
       <c r="D6">
-        <v>14.80166488921165</v>
+        <v>10.2949505007997</v>
       </c>
       <c r="E6">
-        <v>16.07713021726285</v>
+        <v>10.59828405565341</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.715497906306357</v>
+        <v>2.143903253739295</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.409623379803206</v>
+        <v>5.50664270847432</v>
       </c>
       <c r="K6">
-        <v>10.69889026136702</v>
+        <v>9.312089766467533</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.16775493586971</v>
+        <v>11.14935127064608</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>32.46402108790974</v>
+        <v>22.75526079070847</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.10616502000933</v>
+        <v>10.77832692627394</v>
       </c>
       <c r="C7">
-        <v>3.512441951306355</v>
+        <v>5.640132920366901</v>
       </c>
       <c r="D7">
-        <v>14.80652296796795</v>
+        <v>10.39220662146889</v>
       </c>
       <c r="E7">
-        <v>16.07542426876808</v>
+        <v>10.6650208606266</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.71477541353443</v>
+        <v>2.14200483652081</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.404001155366048</v>
+        <v>5.501632021525961</v>
       </c>
       <c r="K7">
-        <v>10.7273572493128</v>
+        <v>9.516426605490217</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.17471486983081</v>
+        <v>11.27606543817515</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>32.44666983388285</v>
+        <v>22.78594627872963</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.32805350569116</v>
+        <v>11.86652199532057</v>
       </c>
       <c r="C8">
-        <v>3.673250652417956</v>
+        <v>6.059972859186559</v>
       </c>
       <c r="D8">
-        <v>14.8344885798215</v>
+        <v>10.8251255698772</v>
       </c>
       <c r="E8">
-        <v>16.07424965559794</v>
+        <v>10.9687962916033</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.711752944771663</v>
+        <v>2.133884328901035</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.38117133696986</v>
+        <v>5.483652267625475</v>
       </c>
       <c r="K8">
-        <v>10.85732209007979</v>
+        <v>10.3710512676332</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.21232357142484</v>
+        <v>11.83199731364933</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>32.3826060309741</v>
+        <v>22.95370248391275</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.77193364363671</v>
+        <v>13.7722109306995</v>
       </c>
       <c r="C9">
-        <v>3.974948610965545</v>
+        <v>6.809793640340656</v>
       </c>
       <c r="D9">
-        <v>14.9125246994267</v>
+        <v>11.68079793180991</v>
       </c>
       <c r="E9">
-        <v>16.09469969484258</v>
+        <v>11.59474058013168</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.706417405147555</v>
+        <v>2.118824313628963</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.3434969632897</v>
+        <v>5.463907239126291</v>
       </c>
       <c r="K9">
-        <v>11.12598849270929</v>
+        <v>11.87811510538866</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.31047492002664</v>
+        <v>12.90106847163169</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>32.30203562693985</v>
+        <v>23.40620008880785</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.09996297095863</v>
+        <v>15.03686016625083</v>
       </c>
       <c r="C10">
-        <v>4.185722058014568</v>
+        <v>7.315197428564859</v>
       </c>
       <c r="D10">
-        <v>14.98371486751316</v>
+        <v>12.30834632637051</v>
       </c>
       <c r="E10">
-        <v>16.12350015811042</v>
+        <v>12.07041878867451</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.702854045269906</v>
+        <v>2.108226690391333</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.320123727700008</v>
+        <v>5.45951502907161</v>
       </c>
       <c r="K10">
-        <v>11.33010986137211</v>
+        <v>12.88361157091501</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.39707270339809</v>
+        <v>13.66668207391279</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>32.27040010031754</v>
+        <v>23.8203704962281</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.24890074890502</v>
+        <v>15.58360943961644</v>
       </c>
       <c r="C11">
-        <v>4.278790876109453</v>
+        <v>7.535239096544489</v>
       </c>
       <c r="D11">
-        <v>15.01903784427362</v>
+        <v>12.59270385093803</v>
       </c>
       <c r="E11">
-        <v>16.1395663486052</v>
+        <v>12.28975420818593</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.701309587504589</v>
+        <v>2.103492636087265</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.310421616238227</v>
+        <v>5.459866114949274</v>
       </c>
       <c r="K11">
-        <v>11.4240658845577</v>
+        <v>13.31935384915093</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.43951900390551</v>
+        <v>14.0095422170591</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>32.26200540798185</v>
+        <v>24.02785954423505</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.30520201686902</v>
+        <v>15.78661613634506</v>
       </c>
       <c r="C12">
-        <v>4.313596820219392</v>
+        <v>7.617151158378584</v>
       </c>
       <c r="D12">
-        <v>15.03282921612019</v>
+        <v>12.70016319051506</v>
       </c>
       <c r="E12">
-        <v>16.14607359257806</v>
+        <v>12.37319949049574</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.700735683117044</v>
+        <v>2.101711185181053</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.306881159404567</v>
+        <v>5.46035034755733</v>
       </c>
       <c r="K12">
-        <v>11.45977197557943</v>
+        <v>13.48128392155053</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.45602233183083</v>
+        <v>14.13852273334774</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>32.25968920909016</v>
+        <v>24.10928036545852</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.29308179101684</v>
+        <v>15.7430733432244</v>
       </c>
       <c r="C13">
-        <v>4.306120661744369</v>
+        <v>7.59957261470576</v>
       </c>
       <c r="D13">
-        <v>15.02984064573825</v>
+        <v>12.67703053729297</v>
       </c>
       <c r="E13">
-        <v>16.14465336502556</v>
+        <v>12.35521131895178</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.700858797672261</v>
+        <v>2.102094374000191</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.307637726188771</v>
+        <v>5.460230212793435</v>
       </c>
       <c r="K13">
-        <v>11.45207687764618</v>
+        <v>13.44654550711455</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.45244907858869</v>
+        <v>14.1107834136785</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>32.26014967318405</v>
+        <v>24.09161653420488</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.25353497784775</v>
+        <v>15.60039138758507</v>
       </c>
       <c r="C14">
-        <v>4.281663317789121</v>
+        <v>7.542006313774611</v>
       </c>
       <c r="D14">
-        <v>15.02016418801641</v>
+        <v>12.60154931792374</v>
       </c>
       <c r="E14">
-        <v>16.14009323779398</v>
+        <v>12.29661171555019</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.70126215295111</v>
+        <v>2.103345857478558</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.310127666355992</v>
+        <v>5.459898832759034</v>
       </c>
       <c r="K14">
-        <v>11.42700107944392</v>
+        <v>13.33273733789903</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.44086818217635</v>
+        <v>14.02017098380168</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>32.26179756235351</v>
+        <v>24.03450037721439</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.22929695365952</v>
+        <v>15.51247116427641</v>
       </c>
       <c r="C15">
-        <v>4.266624647841448</v>
+        <v>7.50656156255677</v>
       </c>
       <c r="D15">
-        <v>15.01429094372939</v>
+        <v>12.5552845824394</v>
       </c>
       <c r="E15">
-        <v>16.13735506290011</v>
+        <v>12.26076729499868</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.701510643804815</v>
+        <v>2.104113851101789</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.311670206764983</v>
+        <v>5.459742014069214</v>
       </c>
       <c r="K15">
-        <v>11.41165704219113</v>
+        <v>13.26262721327474</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.43383024640018</v>
+        <v>13.96455524174748</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>32.26291929521402</v>
+        <v>23.99988926491043</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.09021886546288</v>
+        <v>15.00056026045854</v>
       </c>
       <c r="C16">
-        <v>4.179580303778765</v>
+        <v>7.300619003859683</v>
       </c>
       <c r="D16">
-        <v>14.98146495047688</v>
+        <v>12.28973499830353</v>
       </c>
       <c r="E16">
-        <v>16.12250960429372</v>
+        <v>12.05614078346636</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.70295651436146</v>
+        <v>2.108537714477364</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.320776483348126</v>
+        <v>5.459540490062655</v>
       </c>
       <c r="K16">
-        <v>11.32398908090351</v>
+        <v>12.85470207369644</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.39435939556072</v>
+        <v>13.64415959820063</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>32.27106942053324</v>
+        <v>23.80720356813339</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.00478468037548</v>
+        <v>14.6792565803945</v>
       </c>
       <c r="C17">
-        <v>4.125436434038006</v>
+        <v>7.171754886988252</v>
       </c>
       <c r="D17">
-        <v>14.96207487445965</v>
+        <v>12.12649615910737</v>
       </c>
       <c r="E17">
-        <v>16.11415971035294</v>
+        <v>11.93133630178201</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.7038630702148</v>
+        <v>2.111272992994112</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.326601010453961</v>
+        <v>5.460027880077185</v>
       </c>
       <c r="K17">
-        <v>11.27046716032087</v>
+        <v>12.59893066269037</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.37092081859801</v>
+        <v>13.44616110677626</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>32.27760550352881</v>
+        <v>23.69395928079035</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.95562173639777</v>
+        <v>14.49175996582178</v>
       </c>
       <c r="C18">
-        <v>4.094031230397876</v>
+        <v>7.096706000065971</v>
       </c>
       <c r="D18">
-        <v>14.95119923897242</v>
+        <v>12.03250315010828</v>
       </c>
       <c r="E18">
-        <v>16.10963632680219</v>
+        <v>11.85983126521668</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.704391704147791</v>
+        <v>2.112854509054611</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.330038723474498</v>
+        <v>5.460528473321168</v>
       </c>
       <c r="K18">
-        <v>11.23978818773919</v>
+        <v>12.44977595539358</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.35772746811881</v>
+        <v>13.33177067408744</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.28192930062975</v>
+        <v>23.63061389445816</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.93897375948886</v>
+        <v>14.42781254859876</v>
       </c>
       <c r="C19">
-        <v>4.083353842766338</v>
+        <v>7.07113596779842</v>
       </c>
       <c r="D19">
-        <v>14.94756472471475</v>
+        <v>12.00066318361988</v>
       </c>
       <c r="E19">
-        <v>16.10815283466248</v>
+        <v>11.83567003855392</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.70457193006694</v>
+        <v>2.113391437988311</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.331217727808788</v>
+        <v>5.460735397071765</v>
       </c>
       <c r="K19">
-        <v>11.22941987420043</v>
+        <v>12.39892296836367</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.35331014228864</v>
+        <v>13.29295548506351</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.283490184496</v>
+        <v>23.60947040811873</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.01388214519586</v>
+        <v>14.71373794562364</v>
       </c>
       <c r="C20">
-        <v>4.131227618318841</v>
+        <v>7.185568880263743</v>
       </c>
       <c r="D20">
-        <v>14.96411036060302</v>
+        <v>12.14388427850268</v>
       </c>
       <c r="E20">
-        <v>16.11501968961114</v>
+        <v>11.94459333642762</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.703765820315063</v>
+        <v>2.110980972243598</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.325971915454247</v>
+        <v>5.459953105374572</v>
       </c>
       <c r="K20">
-        <v>11.27615397611395</v>
+        <v>12.62636901598199</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.37338616299705</v>
+        <v>13.46729143577256</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>32.27685130733816</v>
+        <v>23.70582833422137</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.26515394812479</v>
+        <v>15.64240948489149</v>
       </c>
       <c r="C21">
-        <v>4.288859139498731</v>
+        <v>7.558953202225467</v>
       </c>
       <c r="D21">
-        <v>15.02299518626428</v>
+        <v>12.62372638776201</v>
       </c>
       <c r="E21">
-        <v>16.14142119435364</v>
+        <v>12.31381357322732</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.701143381048374</v>
+        <v>2.102977972098278</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.30939268906606</v>
+        <v>5.459986521984842</v>
       </c>
       <c r="K21">
-        <v>11.43436325090003</v>
+        <v>13.36624869891944</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.44425818183507</v>
+        <v>14.04680971091985</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>32.26129012286327</v>
+        <v>24.05119860914582</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.42877694322916</v>
+        <v>16.22586349436052</v>
       </c>
       <c r="C22">
-        <v>4.389319605849402</v>
+        <v>7.794752384641658</v>
       </c>
       <c r="D22">
-        <v>15.06389696215117</v>
+        <v>12.93602565909283</v>
       </c>
       <c r="E22">
-        <v>16.16114193840687</v>
+        <v>12.5573681997118</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.699493253998253</v>
+        <v>2.097812366083004</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.299335344251949</v>
+        <v>5.462062752499475</v>
       </c>
       <c r="K22">
-        <v>11.5384879895218</v>
+        <v>13.83189544153521</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.49307795654217</v>
+        <v>14.4205628493998</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>32.25614832211069</v>
+        <v>24.29357481314607</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.34152134377759</v>
+        <v>15.91658824936708</v>
       </c>
       <c r="C23">
-        <v>4.335946104749288</v>
+        <v>7.669651440101359</v>
       </c>
       <c r="D23">
-        <v>15.04184825714446</v>
+        <v>12.76948168974776</v>
       </c>
       <c r="E23">
-        <v>16.15039206189229</v>
+        <v>12.42718307320032</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.700368139933135</v>
+        <v>2.10056385787402</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.304632032093298</v>
+        <v>5.460761987679863</v>
       </c>
       <c r="K23">
-        <v>11.48285850675721</v>
+        <v>13.584995103628</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.46679624574451</v>
+        <v>14.2215609320027</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>32.25843246878387</v>
+        <v>24.16265504127851</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.00976931927395</v>
+        <v>14.69815756865381</v>
       </c>
       <c r="C24">
-        <v>4.128610284713764</v>
+        <v>7.179326574430818</v>
       </c>
       <c r="D24">
-        <v>14.96318926960546</v>
+        <v>12.13602355611988</v>
       </c>
       <c r="E24">
-        <v>16.1146300296883</v>
+        <v>11.93859905975899</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.703809763805444</v>
+        <v>2.111112966797451</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.326256051693914</v>
+        <v>5.459986225574238</v>
       </c>
       <c r="K24">
-        <v>11.27358267931483</v>
+        <v>12.61397070627844</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.37227070232522</v>
+        <v>13.45774014774255</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>32.27719051598276</v>
+        <v>23.70045686030913</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.65127216205544</v>
+        <v>13.28073508943703</v>
       </c>
       <c r="C25">
-        <v>3.895074428011268</v>
+        <v>6.614913584645373</v>
       </c>
       <c r="D25">
-        <v>14.88895759186971</v>
+        <v>11.44917201976288</v>
       </c>
       <c r="E25">
-        <v>16.08673998072567</v>
+        <v>11.42244998587086</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.7077978934371</v>
+        <v>2.122811867956693</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.352931296220177</v>
+        <v>5.467522113348273</v>
       </c>
       <c r="K25">
-        <v>11.05200118723627</v>
+        <v>11.48839714191984</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.28134798081161</v>
+        <v>12.61489905448812</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>32.31899753492481</v>
+        <v>23.26988983445401</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_17/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.14578859185833</v>
+        <v>21.18303378469325</v>
       </c>
       <c r="C2">
-        <v>6.16879859420768</v>
+        <v>16.10912648943376</v>
       </c>
       <c r="D2">
-        <v>10.94309479349259</v>
+        <v>7.081612770559189</v>
       </c>
       <c r="E2">
-        <v>11.05325321613944</v>
+        <v>7.789138224695879</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.131744656212727</v>
+        <v>47.6034374775994</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.48395232257095</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.097356112262111</v>
       </c>
       <c r="J2">
-        <v>5.479807227042373</v>
+        <v>14.1470382189039</v>
       </c>
       <c r="K2">
-        <v>10.59115867218827</v>
+        <v>22.29757404469196</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>11.98149504956874</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.718248362323903</v>
       </c>
       <c r="O2">
-        <v>23.00727062736334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.82655263015085</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.31843700456634</v>
+        <v>19.75737371249657</v>
       </c>
       <c r="C3">
-        <v>5.847628408317799</v>
+        <v>15.07537964268685</v>
       </c>
       <c r="D3">
-        <v>10.60161639888531</v>
+        <v>6.587778182380235</v>
       </c>
       <c r="E3">
-        <v>10.81067697119894</v>
+        <v>7.541717769549221</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.138017322251626</v>
+        <v>45.45753495974992</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.763917382765271</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.352476153350304</v>
       </c>
       <c r="J3">
-        <v>5.49211842030082</v>
+        <v>13.8023575552751</v>
       </c>
       <c r="K3">
-        <v>9.939960296380304</v>
+        <v>21.82548811485496</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>11.54651809965193</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.50524900997312</v>
       </c>
       <c r="O3">
-        <v>22.86110723087522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.18164087213387</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.78134814426897</v>
+        <v>18.82959445232006</v>
       </c>
       <c r="C4">
-        <v>5.641288355316983</v>
+        <v>14.41094741429397</v>
       </c>
       <c r="D4">
-        <v>10.39334703110437</v>
+        <v>6.275235221865298</v>
       </c>
       <c r="E4">
-        <v>10.66580698556208</v>
+        <v>7.385693032246941</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.141982765877781</v>
+        <v>44.09784775622644</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.941077223837892</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.514618635649766</v>
       </c>
       <c r="J4">
-        <v>5.501575620842177</v>
+        <v>13.58928022515272</v>
       </c>
       <c r="K4">
-        <v>9.518791859670559</v>
+        <v>21.53182277907622</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.27754688427203</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.370956473642821</v>
       </c>
       <c r="O4">
-        <v>22.78632267853187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.76967001866611</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.5551094985282</v>
+        <v>18.43793675696447</v>
       </c>
       <c r="C5">
-        <v>5.554937501913946</v>
+        <v>14.14136764132417</v>
       </c>
       <c r="D5">
-        <v>10.30893584343383</v>
+        <v>6.161452485574027</v>
       </c>
       <c r="E5">
-        <v>10.60784287064713</v>
+        <v>7.320480387245119</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.143628221338798</v>
+        <v>43.48951509910415</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.015123779168025</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.584913218140564</v>
       </c>
       <c r="J5">
-        <v>5.505897152211928</v>
+        <v>13.49309484164044</v>
       </c>
       <c r="K5">
-        <v>9.341802186546193</v>
+        <v>21.3925325308142</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.16761915504367</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.315621096967113</v>
       </c>
       <c r="O5">
-        <v>22.75949787202245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.5983975718816</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.51709598930682</v>
+        <v>18.37171291479678</v>
       </c>
       <c r="C6">
-        <v>5.540463323967585</v>
+        <v>14.10677645248895</v>
       </c>
       <c r="D6">
-        <v>10.2949505007997</v>
+        <v>6.142383373342112</v>
       </c>
       <c r="E6">
-        <v>10.59828405565341</v>
+        <v>7.30890878170361</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.143903253739295</v>
+        <v>43.33376393580664</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.028104993430816</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.600266427577898</v>
       </c>
       <c r="J6">
-        <v>5.50664270847432</v>
+        <v>13.46602398178685</v>
       </c>
       <c r="K6">
-        <v>9.312089766467533</v>
+        <v>21.34644282917289</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.14935127064608</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.306676720477912</v>
       </c>
       <c r="O6">
-        <v>22.75526079070847</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.57032016793006</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.77832692627394</v>
+        <v>18.82332109281785</v>
       </c>
       <c r="C7">
-        <v>5.640132920366901</v>
+        <v>14.43568177166398</v>
       </c>
       <c r="D7">
-        <v>10.39220662146889</v>
+        <v>6.273622640976459</v>
       </c>
       <c r="E7">
-        <v>10.6650208606266</v>
+        <v>7.38300437151827</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.14200483652081</v>
+        <v>43.94405655703333</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.943695161737707</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.525142721405282</v>
       </c>
       <c r="J7">
-        <v>5.501632021525961</v>
+        <v>13.55796011019912</v>
       </c>
       <c r="K7">
-        <v>9.516426605490217</v>
+        <v>21.46780012984282</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.27606543817515</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.371017126369911</v>
       </c>
       <c r="O7">
-        <v>22.78594627872963</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.7689478875547</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.86652199532057</v>
+        <v>20.70094741966717</v>
       </c>
       <c r="C8">
-        <v>6.059972859186559</v>
+        <v>15.79347741168099</v>
       </c>
       <c r="D8">
-        <v>10.8251255698772</v>
+        <v>6.914581445212477</v>
       </c>
       <c r="E8">
-        <v>10.9687962916033</v>
+        <v>7.702413117345241</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.133884328901035</v>
+        <v>46.69022291505247</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.581471439426692</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.196711713056096</v>
       </c>
       <c r="J8">
-        <v>5.483652267625475</v>
+        <v>13.99000477385922</v>
       </c>
       <c r="K8">
-        <v>10.3710512676332</v>
+        <v>22.0555170666607</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>11.83199731364933</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.646613266209524</v>
       </c>
       <c r="O8">
-        <v>22.95370248391275</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.60948136705065</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.7722109306995</v>
+        <v>23.97266698249721</v>
       </c>
       <c r="C9">
-        <v>6.809793640340656</v>
+        <v>18.17737575716205</v>
       </c>
       <c r="D9">
-        <v>11.68079793180991</v>
+        <v>8.056830168232269</v>
       </c>
       <c r="E9">
-        <v>11.59474058013168</v>
+        <v>8.301087687234435</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.118824313628963</v>
+        <v>51.96082126332464</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.908451890121569</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.57911148287133</v>
       </c>
       <c r="J9">
-        <v>5.463907239126291</v>
+        <v>14.87447470471527</v>
       </c>
       <c r="K9">
-        <v>11.87811510538866</v>
+        <v>23.2821356824762</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>12.90106847163169</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.156542614575105</v>
       </c>
       <c r="O9">
-        <v>23.40620008880785</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>14.12334379599159</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.03686016625083</v>
+        <v>26.14537885890306</v>
       </c>
       <c r="C10">
-        <v>7.315197428564859</v>
+        <v>19.87011559997605</v>
       </c>
       <c r="D10">
-        <v>12.30834632637051</v>
+        <v>8.818626282265006</v>
       </c>
       <c r="E10">
-        <v>12.07041878867451</v>
+        <v>8.739728836614367</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.108226690391333</v>
+        <v>54.95428127775681</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.673376082552275</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.794281585927564</v>
       </c>
       <c r="J10">
-        <v>5.45951502907161</v>
+        <v>15.36931810904454</v>
       </c>
       <c r="K10">
-        <v>12.88361157091501</v>
+        <v>23.86912896799376</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>13.66668207391279</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.409039619713513</v>
       </c>
       <c r="O10">
-        <v>23.8203704962281</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>15.07807275771649</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.58360943961644</v>
+        <v>27.2127579226326</v>
       </c>
       <c r="C11">
-        <v>7.535239096544489</v>
+        <v>21.23971145483229</v>
       </c>
       <c r="D11">
-        <v>12.59270385093803</v>
+        <v>9.141480025717177</v>
       </c>
       <c r="E11">
-        <v>12.28975420818593</v>
+        <v>9.280775209271583</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.103492636087265</v>
+        <v>51.11608741833796</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.696593548811919</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.91749008295421</v>
       </c>
       <c r="J11">
-        <v>5.459866114949274</v>
+        <v>14.43672786939621</v>
       </c>
       <c r="K11">
-        <v>13.31935384915093</v>
+        <v>21.80324701558555</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.0095422170591</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.677722871388609</v>
       </c>
       <c r="O11">
-        <v>24.02785954423505</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.86974136579074</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.78661613634506</v>
+        <v>27.67762770359191</v>
       </c>
       <c r="C12">
-        <v>7.617151158378584</v>
+        <v>22.0318094567913</v>
       </c>
       <c r="D12">
-        <v>12.70016319051506</v>
+        <v>9.25879974716339</v>
       </c>
       <c r="E12">
-        <v>12.37319949049574</v>
+        <v>9.90544273433561</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.101711185181053</v>
+        <v>47.38778117184098</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.030841065850999</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.938622377385818</v>
       </c>
       <c r="J12">
-        <v>5.46035034755733</v>
+        <v>13.57951795730029</v>
       </c>
       <c r="K12">
-        <v>13.48128392155053</v>
+        <v>20.03516617575401</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.13852273334774</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.082591212965254</v>
       </c>
       <c r="O12">
-        <v>24.10928036545852</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>14.48543648995932</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.7430733432244</v>
+        <v>27.72139538979535</v>
       </c>
       <c r="C13">
-        <v>7.59957261470576</v>
+        <v>22.48446340884468</v>
       </c>
       <c r="D13">
-        <v>12.67703053729297</v>
+        <v>9.228155498427771</v>
       </c>
       <c r="E13">
-        <v>12.35521131895178</v>
+        <v>10.59245555266372</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.102094374000191</v>
+        <v>43.22437902910757</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.486772050149804</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.885953020954115</v>
       </c>
       <c r="J13">
-        <v>5.460230212793435</v>
+        <v>12.67456405363656</v>
       </c>
       <c r="K13">
-        <v>13.44654550711455</v>
+        <v>18.29492050476167</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.1107834136785</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.574886764842582</v>
       </c>
       <c r="O13">
-        <v>24.09161653420488</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.93416600774402</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.60039138758507</v>
+        <v>27.56279041221593</v>
       </c>
       <c r="C14">
-        <v>7.542006313774611</v>
+        <v>22.66314528421582</v>
       </c>
       <c r="D14">
-        <v>12.60154931792374</v>
+        <v>9.139530445293701</v>
       </c>
       <c r="E14">
-        <v>12.29661171555019</v>
+        <v>11.11617277532398</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.103345857478558</v>
+        <v>40.03029060421402</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.516228445523153</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.817353146653302</v>
       </c>
       <c r="J14">
-        <v>5.459898832759034</v>
+        <v>12.01063527230901</v>
       </c>
       <c r="K14">
-        <v>13.33273733789903</v>
+        <v>17.0900645801273</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.02017098380168</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.288994645898796</v>
       </c>
       <c r="O14">
-        <v>24.03450037721439</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.46613792946085</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.51247116427641</v>
+        <v>27.43281069085605</v>
       </c>
       <c r="C15">
-        <v>7.50656156255677</v>
+        <v>22.6428061333536</v>
       </c>
       <c r="D15">
-        <v>12.5552845824394</v>
+        <v>9.085945567981204</v>
       </c>
       <c r="E15">
-        <v>12.26076729499868</v>
+        <v>11.22874812204663</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.104113851101789</v>
+        <v>39.10860060648272</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.75634736307287</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.785454389570734</v>
       </c>
       <c r="J15">
-        <v>5.459742014069214</v>
+        <v>11.82996846916574</v>
       </c>
       <c r="K15">
-        <v>13.26262721327474</v>
+        <v>16.78527756119415</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>13.96455524174748</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.22796958263843</v>
       </c>
       <c r="O15">
-        <v>23.99988926491043</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>13.3166169560967</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.00056026045854</v>
+        <v>26.54529153575457</v>
       </c>
       <c r="C16">
-        <v>7.300619003859683</v>
+        <v>21.91453598302845</v>
       </c>
       <c r="D16">
-        <v>12.28973499830353</v>
+        <v>8.777955601883281</v>
       </c>
       <c r="E16">
-        <v>12.05614078346636</v>
+        <v>10.92672887697115</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.108537714477364</v>
+        <v>38.32866219876011</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.567543853626601</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.622850898102006</v>
       </c>
       <c r="J16">
-        <v>5.459540490062655</v>
+        <v>11.75703919854542</v>
       </c>
       <c r="K16">
-        <v>12.85470207369644</v>
+        <v>16.82708564752849</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>13.64415959820063</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.206615238858858</v>
       </c>
       <c r="O16">
-        <v>23.80720356813339</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>12.99939788924759</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.6792565803945</v>
+        <v>25.93653965389247</v>
       </c>
       <c r="C17">
-        <v>7.171754886988252</v>
+        <v>21.24210100796566</v>
       </c>
       <c r="D17">
-        <v>12.12649615910737</v>
+        <v>8.586186294052627</v>
       </c>
       <c r="E17">
-        <v>11.93133630178201</v>
+        <v>10.38697387201667</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.111272992994112</v>
+        <v>39.49764859824202</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.849132485455173</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.534589816710751</v>
       </c>
       <c r="J17">
-        <v>5.460027880077185</v>
+        <v>12.05869446393209</v>
       </c>
       <c r="K17">
-        <v>12.59893066269037</v>
+        <v>17.49067544936594</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.44616110677626</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.328939633938966</v>
       </c>
       <c r="O17">
-        <v>23.69395928079035</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>13.01243815819346</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.49175996582178</v>
+        <v>25.51286192940825</v>
       </c>
       <c r="C18">
-        <v>7.096706000065971</v>
+        <v>20.53303036628936</v>
       </c>
       <c r="D18">
-        <v>12.03250315010828</v>
+        <v>8.47656672460417</v>
       </c>
       <c r="E18">
-        <v>11.85983126521668</v>
+        <v>9.660253487050456</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.112854509054611</v>
+        <v>42.57619204435518</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.617308090825238</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.503871718210159</v>
       </c>
       <c r="J18">
-        <v>5.460528473321168</v>
+        <v>12.74121859960006</v>
       </c>
       <c r="K18">
-        <v>12.44977595539358</v>
+        <v>18.8419544634976</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.33177067408744</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.663838361323674</v>
       </c>
       <c r="O18">
-        <v>23.63061389445816</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>13.31086310707313</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.42781254859876</v>
+        <v>25.27665897286149</v>
       </c>
       <c r="C19">
-        <v>7.07113596779842</v>
+        <v>19.90993866128342</v>
       </c>
       <c r="D19">
-        <v>12.00066318361988</v>
+        <v>8.442560076089627</v>
       </c>
       <c r="E19">
-        <v>11.83567003855392</v>
+        <v>9.001798357172202</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.113391437988311</v>
+        <v>46.69272846459131</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.157698401966949</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.524192158864328</v>
       </c>
       <c r="J19">
-        <v>5.460735397071765</v>
+        <v>13.63538732077428</v>
       </c>
       <c r="K19">
-        <v>12.39892296836367</v>
+        <v>20.59851863404557</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.29295548506351</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.233630598512748</v>
       </c>
       <c r="O19">
-        <v>23.60947040811873</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.81117271138636</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.71373794562364</v>
+        <v>25.58906903491583</v>
       </c>
       <c r="C20">
-        <v>7.185568880263743</v>
+        <v>19.50684886811879</v>
       </c>
       <c r="D20">
-        <v>12.14388427850268</v>
+        <v>8.623107953197477</v>
       </c>
       <c r="E20">
-        <v>11.94459333642762</v>
+        <v>8.621744019861817</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.110980972243598</v>
+        <v>53.78069961292174</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.589905452964623</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.69697226516103</v>
       </c>
       <c r="J20">
-        <v>5.459953105374572</v>
+        <v>15.15077450902854</v>
       </c>
       <c r="K20">
-        <v>12.62636901598199</v>
+        <v>23.52934577716231</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.46729143577256</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.341276206857141</v>
       </c>
       <c r="O20">
-        <v>23.70582833422137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.83311063906105</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.64240948489149</v>
+        <v>27.15683747943947</v>
       </c>
       <c r="C21">
-        <v>7.558953202225467</v>
+        <v>20.63734452974585</v>
       </c>
       <c r="D21">
-        <v>12.62372638776201</v>
+        <v>9.185725848732055</v>
       </c>
       <c r="E21">
-        <v>12.31381357322732</v>
+        <v>8.93165016869378</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.102977972098278</v>
+        <v>56.9975772716918</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.906091817742976</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.017685062380225</v>
       </c>
       <c r="J21">
-        <v>5.459986521984842</v>
+        <v>15.74742568088111</v>
       </c>
       <c r="K21">
-        <v>13.36624869891944</v>
+        <v>24.42054864924706</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.04680971091985</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.689092696306946</v>
       </c>
       <c r="O21">
-        <v>24.05119860914582</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.6494948050594</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.22586349436052</v>
+        <v>28.14762603832332</v>
       </c>
       <c r="C22">
-        <v>7.794752384641658</v>
+        <v>21.36283347514558</v>
       </c>
       <c r="D22">
-        <v>12.93602565909283</v>
+        <v>9.540144536164659</v>
       </c>
       <c r="E22">
-        <v>12.5573681997118</v>
+        <v>9.14209081051631</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.097812366083004</v>
+        <v>58.89671741866829</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.132471960766062</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.218285683300939</v>
       </c>
       <c r="J22">
-        <v>5.462062752499475</v>
+        <v>16.10070380363759</v>
       </c>
       <c r="K22">
-        <v>13.83189544153521</v>
+        <v>24.93284572218447</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.4205628493998</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.858480543949644</v>
       </c>
       <c r="O22">
-        <v>24.29357481314607</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>16.1279771693121</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.91658824936708</v>
+        <v>27.6238766820552</v>
       </c>
       <c r="C23">
-        <v>7.669651440101359</v>
+        <v>20.9536760939692</v>
       </c>
       <c r="D23">
-        <v>12.76948168974776</v>
+        <v>9.352358428113563</v>
       </c>
       <c r="E23">
-        <v>12.42718307320032</v>
+        <v>9.031598528737041</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.10056385787402</v>
+        <v>58.02137103905207</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.013494548701352</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.108098815087913</v>
       </c>
       <c r="J23">
-        <v>5.460761987679863</v>
+        <v>15.94282962487889</v>
       </c>
       <c r="K23">
-        <v>13.584995103628</v>
+        <v>24.72410551384594</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.2215609320027</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.767524012091943</v>
       </c>
       <c r="O23">
-        <v>24.16265504127851</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.87287112694959</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.69815756865381</v>
+        <v>25.55206606700173</v>
       </c>
       <c r="C24">
-        <v>7.179326574430818</v>
+        <v>19.39290431055185</v>
       </c>
       <c r="D24">
-        <v>12.13602355611988</v>
+        <v>8.614659546297187</v>
       </c>
       <c r="E24">
-        <v>11.93859905975899</v>
+        <v>8.606977957383133</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.111112966797451</v>
+        <v>54.40945291825241</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.566868313851501</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.691449933589487</v>
       </c>
       <c r="J24">
-        <v>5.459986225574238</v>
+        <v>15.29276874461913</v>
       </c>
       <c r="K24">
-        <v>12.61397070627844</v>
+        <v>23.82536818173435</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.45774014774255</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.416994859111325</v>
       </c>
       <c r="O24">
-        <v>23.70045686030913</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.87563753542168</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.28073508943703</v>
+        <v>23.12935739687354</v>
       </c>
       <c r="C25">
-        <v>6.614913584645373</v>
+        <v>17.59981266013135</v>
       </c>
       <c r="D25">
-        <v>11.44917201976288</v>
+        <v>7.761183378159009</v>
       </c>
       <c r="E25">
-        <v>11.42244998587086</v>
+        <v>8.139307877732138</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.122811867956693</v>
+        <v>50.34501488129612</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.089145799619806</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.760698411012164</v>
       </c>
       <c r="J25">
-        <v>5.467522113348273</v>
+        <v>14.58682911770462</v>
       </c>
       <c r="K25">
-        <v>11.48839714191984</v>
+        <v>22.84908807069687</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.61489905448812</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.023288368716361</v>
       </c>
       <c r="O25">
-        <v>23.26988983445401</v>
+        <v>13.73082407618936</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_17/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.18303378469325</v>
+        <v>21.22207798684779</v>
       </c>
       <c r="C2">
-        <v>16.10912648943376</v>
+        <v>17.0404724386335</v>
       </c>
       <c r="D2">
-        <v>7.081612770559189</v>
+        <v>7.087387243316141</v>
       </c>
       <c r="E2">
-        <v>7.789138224695879</v>
+        <v>7.756568948987717</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>47.6034374775994</v>
+        <v>41.31672485673652</v>
       </c>
       <c r="H2">
-        <v>2.48395232257095</v>
+        <v>2.379596563135908</v>
       </c>
       <c r="I2">
-        <v>3.097356112262111</v>
+        <v>2.966985873799582</v>
       </c>
       <c r="J2">
-        <v>14.1470382189039</v>
+        <v>13.19091324877244</v>
       </c>
       <c r="K2">
-        <v>22.29757404469196</v>
+        <v>19.5482198384433</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>15.90584329227774</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>13.17998571662668</v>
       </c>
       <c r="N2">
-        <v>6.718248362323903</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.82655263015085</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.876717250873002</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.87274275745862</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.75737371249657</v>
+        <v>19.8101443807754</v>
       </c>
       <c r="C3">
-        <v>15.07537964268685</v>
+        <v>15.8916342725955</v>
       </c>
       <c r="D3">
-        <v>6.587778182380235</v>
+        <v>6.595597243559416</v>
       </c>
       <c r="E3">
-        <v>7.541717769549221</v>
+        <v>7.535707377011872</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>45.45753495974992</v>
+        <v>39.78875651863273</v>
       </c>
       <c r="H3">
-        <v>2.763917382765271</v>
+        <v>2.628775163833598</v>
       </c>
       <c r="I3">
-        <v>3.352476153350304</v>
+        <v>3.185233708795226</v>
       </c>
       <c r="J3">
-        <v>13.8023575552751</v>
+        <v>12.93498688838462</v>
       </c>
       <c r="K3">
-        <v>21.82548811485496</v>
+        <v>19.35410095144276</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>15.87896590122008</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>12.91267915322113</v>
       </c>
       <c r="N3">
-        <v>6.50524900997312</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>12.18164087213387</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.675235059337833</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.21609480547097</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.82959445232006</v>
+        <v>18.89064172263438</v>
       </c>
       <c r="C4">
-        <v>14.41094741429397</v>
+        <v>15.15096362895049</v>
       </c>
       <c r="D4">
-        <v>6.275235221865298</v>
+        <v>6.281561430568505</v>
       </c>
       <c r="E4">
-        <v>7.385693032246941</v>
+        <v>7.396496276048557</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>44.09784775622644</v>
+        <v>38.82941262948502</v>
       </c>
       <c r="H4">
-        <v>2.941077223837892</v>
+        <v>2.786636469856018</v>
       </c>
       <c r="I4">
-        <v>3.514618635649766</v>
+        <v>3.324422468535432</v>
       </c>
       <c r="J4">
-        <v>13.58928022515272</v>
+        <v>12.77441150669137</v>
       </c>
       <c r="K4">
-        <v>21.53182277907622</v>
+        <v>19.23358079693532</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>15.855774536216</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>12.76547053912221</v>
       </c>
       <c r="N4">
-        <v>6.370956473642821</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>11.76967001866611</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.548558673101475</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.79576410011679</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.43793675696447</v>
+        <v>18.50235626801584</v>
       </c>
       <c r="C5">
-        <v>14.14136764132417</v>
+        <v>14.84827934845118</v>
       </c>
       <c r="D5">
-        <v>6.161452485574027</v>
+        <v>6.167934531828068</v>
       </c>
       <c r="E5">
-        <v>7.320480387245119</v>
+        <v>7.338575479657082</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>43.48951509910415</v>
+        <v>38.39547502014482</v>
       </c>
       <c r="H5">
-        <v>3.015123779168025</v>
+        <v>2.852644739979416</v>
       </c>
       <c r="I5">
-        <v>3.584913218140564</v>
+        <v>3.385675384526886</v>
       </c>
       <c r="J5">
-        <v>13.49309484164044</v>
+        <v>12.70052969536556</v>
       </c>
       <c r="K5">
-        <v>21.3925325308142</v>
+        <v>19.16898294288444</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>15.83215031359832</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>12.69946082897944</v>
       </c>
       <c r="N5">
-        <v>6.315621096967113</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>11.5983975718816</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.496425507406432</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.62072886445006</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.37171291479678</v>
+        <v>18.43671945509817</v>
       </c>
       <c r="C6">
-        <v>14.10677645248895</v>
+        <v>14.80731906297277</v>
       </c>
       <c r="D6">
-        <v>6.142383373342112</v>
+        <v>6.148892514786038</v>
       </c>
       <c r="E6">
-        <v>7.30890878170361</v>
+        <v>7.328588693060628</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>43.33376393580664</v>
+        <v>38.27662312934898</v>
       </c>
       <c r="H6">
-        <v>3.028104993430816</v>
+        <v>2.864202906411136</v>
       </c>
       <c r="I6">
-        <v>3.600266427577898</v>
+        <v>3.400054888337187</v>
       </c>
       <c r="J6">
-        <v>13.46602398178685</v>
+        <v>12.67889288012835</v>
       </c>
       <c r="K6">
-        <v>21.34644282917289</v>
+        <v>19.13974665850852</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>15.81289709258287</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12.67602433432623</v>
       </c>
       <c r="N6">
-        <v>6.306676720477912</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>11.57032016793006</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.487968494954776</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.59192979135409</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.82332109281785</v>
+        <v>18.88430125096129</v>
       </c>
       <c r="C7">
-        <v>14.43568177166398</v>
+        <v>15.16016353736069</v>
       </c>
       <c r="D7">
-        <v>6.273622640976459</v>
+        <v>6.27991047211987</v>
       </c>
       <c r="E7">
-        <v>7.38300437151827</v>
+        <v>7.393144786340899</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>43.94405655703333</v>
+        <v>38.74798605657549</v>
       </c>
       <c r="H7">
-        <v>2.943695161737707</v>
+        <v>2.789732045595176</v>
       </c>
       <c r="I7">
-        <v>3.525142721405282</v>
+        <v>3.337084117949977</v>
       </c>
       <c r="J7">
-        <v>13.55796011019912</v>
+        <v>12.68295133918002</v>
       </c>
       <c r="K7">
-        <v>21.46780012984282</v>
+        <v>19.15877063584051</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>15.79526057598345</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>12.7127289413212</v>
       </c>
       <c r="N7">
-        <v>6.371017126369911</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>11.7689478875547</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.547474742992159</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.79439455582533</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.70094741966717</v>
+        <v>20.74425951961681</v>
       </c>
       <c r="C8">
-        <v>15.79347741168099</v>
+        <v>16.64385509126931</v>
       </c>
       <c r="D8">
-        <v>6.914581445212477</v>
+        <v>6.92086749354648</v>
       </c>
       <c r="E8">
-        <v>7.702413117345241</v>
+        <v>7.674676724950319</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>46.69022291505247</v>
+        <v>40.79599603335174</v>
       </c>
       <c r="H8">
-        <v>2.581471439426692</v>
+        <v>2.468796261870934</v>
       </c>
       <c r="I8">
-        <v>3.196711713056096</v>
+        <v>3.058171881330874</v>
       </c>
       <c r="J8">
-        <v>13.99000477385922</v>
+        <v>12.86081289660823</v>
       </c>
       <c r="K8">
-        <v>22.0555170666607</v>
+        <v>19.33995154808578</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>15.78703778514385</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.98008365619586</v>
       </c>
       <c r="N8">
-        <v>6.646613266209524</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>12.60948136705065</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.805479542329572</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.65032253822704</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.97266698249721</v>
+        <v>23.97997467467599</v>
       </c>
       <c r="C9">
-        <v>18.17737575716205</v>
+        <v>19.28110891627878</v>
       </c>
       <c r="D9">
-        <v>8.056830168232269</v>
+        <v>8.056638744587771</v>
       </c>
       <c r="E9">
-        <v>8.301087687234435</v>
+        <v>8.207024591454996</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>51.96082126332464</v>
+        <v>44.65492839677768</v>
       </c>
       <c r="H9">
-        <v>1.908451890121569</v>
+        <v>1.871470790902711</v>
       </c>
       <c r="I9">
-        <v>2.57911148287133</v>
+        <v>2.530201481037106</v>
       </c>
       <c r="J9">
-        <v>14.87447470471527</v>
+        <v>13.46227150189289</v>
       </c>
       <c r="K9">
-        <v>23.2821356824762</v>
+        <v>19.85955257363221</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>15.85626068799004</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.7586984526525</v>
       </c>
       <c r="N9">
-        <v>7.156542614575105</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>14.12334379599159</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.28903560687155</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.18702497458673</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.14537885890306</v>
+        <v>26.12426759499705</v>
       </c>
       <c r="C10">
-        <v>19.87011559997605</v>
+        <v>21.05685871699439</v>
       </c>
       <c r="D10">
-        <v>8.818626282265006</v>
+        <v>8.81205243249172</v>
       </c>
       <c r="E10">
-        <v>8.739728836614367</v>
+        <v>8.606521457015441</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>54.95428127775681</v>
+        <v>47.10095002554839</v>
       </c>
       <c r="H10">
-        <v>1.673376082552275</v>
+        <v>1.654533241585094</v>
       </c>
       <c r="I10">
-        <v>2.794281585927564</v>
+        <v>2.78710038978246</v>
       </c>
       <c r="J10">
-        <v>15.36931810904454</v>
+        <v>13.43800117643788</v>
       </c>
       <c r="K10">
-        <v>23.86912896799376</v>
+        <v>19.89665682480173</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>15.63084113969326</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.1285375072528</v>
       </c>
       <c r="N10">
-        <v>7.409039619713513</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>15.07807275771649</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.517635768414912</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.14959733547928</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.2127579226326</v>
+        <v>27.18594128010929</v>
       </c>
       <c r="C11">
-        <v>21.23971145483229</v>
+        <v>22.20611800313968</v>
       </c>
       <c r="D11">
-        <v>9.141480025717177</v>
+        <v>9.132737059070045</v>
       </c>
       <c r="E11">
-        <v>9.280775209271583</v>
+        <v>9.23102664333428</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>51.11608741833796</v>
+        <v>44.51159120150541</v>
       </c>
       <c r="H11">
-        <v>2.696593548811919</v>
+        <v>2.67430281169981</v>
       </c>
       <c r="I11">
-        <v>2.91749008295421</v>
+        <v>2.893736292104761</v>
       </c>
       <c r="J11">
-        <v>14.43672786939621</v>
+        <v>12.00972730954608</v>
       </c>
       <c r="K11">
-        <v>21.80324701558555</v>
+        <v>18.00316575478775</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.17696582601041</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>12.77136666600617</v>
       </c>
       <c r="N11">
-        <v>6.677722871388609</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>14.86974136579074</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.753116611259909</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.9305465895323</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.67762770359191</v>
+        <v>27.65208768066394</v>
       </c>
       <c r="C12">
-        <v>22.0318094567913</v>
+        <v>22.82456547475241</v>
       </c>
       <c r="D12">
-        <v>9.25879974716339</v>
+        <v>9.249821874802979</v>
       </c>
       <c r="E12">
-        <v>9.90544273433561</v>
+        <v>9.903393352261819</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>47.38778117184098</v>
+        <v>41.77769448704672</v>
       </c>
       <c r="H12">
-        <v>4.030841065850999</v>
+        <v>4.036836802719036</v>
       </c>
       <c r="I12">
-        <v>2.938622377385818</v>
+        <v>2.912574013817396</v>
       </c>
       <c r="J12">
-        <v>13.57951795730029</v>
+        <v>11.0742107081156</v>
       </c>
       <c r="K12">
-        <v>20.03516617575401</v>
+        <v>16.57832383549657</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>13.1571242275851</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.66171339882092</v>
       </c>
       <c r="N12">
-        <v>6.082591212965254</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>14.48543648995932</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.137296033699532</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>14.53758341442516</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.72139538979535</v>
+        <v>27.70307183617614</v>
       </c>
       <c r="C13">
-        <v>22.48446340884468</v>
+        <v>23.14791548621651</v>
       </c>
       <c r="D13">
-        <v>9.228155498427771</v>
+        <v>9.220708079799895</v>
       </c>
       <c r="E13">
-        <v>10.59245555266372</v>
+        <v>10.62919524681044</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>43.22437902910757</v>
+        <v>38.40815641082621</v>
       </c>
       <c r="H13">
-        <v>5.486772050149804</v>
+        <v>5.494369272327582</v>
       </c>
       <c r="I13">
-        <v>2.885953020954115</v>
+        <v>2.871797924861831</v>
       </c>
       <c r="J13">
-        <v>12.67456405363656</v>
+        <v>10.52411123419505</v>
       </c>
       <c r="K13">
-        <v>18.29492050476167</v>
+        <v>15.39721810352985</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.36679755182279</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10.65894880836028</v>
       </c>
       <c r="N13">
-        <v>5.574886764842582</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>13.93416600774402</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.619475816610702</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.97891849499907</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.56279041221593</v>
+        <v>27.5519963900671</v>
       </c>
       <c r="C14">
-        <v>22.66314528421582</v>
+        <v>23.25231810820423</v>
       </c>
       <c r="D14">
-        <v>9.139530445293701</v>
+        <v>9.133886671386525</v>
       </c>
       <c r="E14">
-        <v>11.11617277532398</v>
+        <v>11.17614673435776</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>40.03029060421402</v>
+        <v>35.69700153614859</v>
       </c>
       <c r="H14">
-        <v>6.516228445523153</v>
+        <v>6.519625028166271</v>
       </c>
       <c r="I14">
-        <v>2.817353146653302</v>
+        <v>2.81802737108058</v>
       </c>
       <c r="J14">
-        <v>12.01063527230901</v>
+        <v>10.28526498645432</v>
       </c>
       <c r="K14">
-        <v>17.0900645801273</v>
+        <v>14.67413103135914</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.90454799743647</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.00377501916623</v>
       </c>
       <c r="N14">
-        <v>5.288994645898796</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>13.46613792946085</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.331304231245334</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.50582131397612</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.43281069085605</v>
+        <v>27.42514859567961</v>
       </c>
       <c r="C15">
-        <v>22.6428061333536</v>
+        <v>23.2212738909366</v>
       </c>
       <c r="D15">
-        <v>9.085945567981204</v>
+        <v>9.081108454982125</v>
       </c>
       <c r="E15">
-        <v>11.22874812204663</v>
+        <v>11.29700941682163</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>39.10860060648272</v>
+        <v>34.86644808754333</v>
       </c>
       <c r="H15">
-        <v>6.75634736307287</v>
+        <v>6.758200198167104</v>
       </c>
       <c r="I15">
-        <v>2.785454389570734</v>
+        <v>2.793438380068732</v>
       </c>
       <c r="J15">
-        <v>11.82996846916574</v>
+        <v>10.28224951540386</v>
       </c>
       <c r="K15">
-        <v>16.78527756119415</v>
+        <v>14.52533364730296</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.81566658097674</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.853858461153633</v>
       </c>
       <c r="N15">
-        <v>5.22796958263843</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>13.3166169560967</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.271847722150165</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.35504281302562</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.54529153575457</v>
+        <v>26.54973106859548</v>
       </c>
       <c r="C16">
-        <v>21.91453598302845</v>
+        <v>22.56461871017186</v>
       </c>
       <c r="D16">
-        <v>8.777955601883281</v>
+        <v>8.776452572980343</v>
       </c>
       <c r="E16">
-        <v>10.92672887697115</v>
+        <v>11.02987269709861</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>38.32866219876011</v>
+        <v>33.82896040737852</v>
       </c>
       <c r="H16">
-        <v>6.567543853626601</v>
+        <v>6.562166709968206</v>
       </c>
       <c r="I16">
-        <v>2.622850898102006</v>
+        <v>2.66121644435771</v>
       </c>
       <c r="J16">
-        <v>11.75703919854542</v>
+        <v>10.81505111530502</v>
       </c>
       <c r="K16">
-        <v>16.82708564752849</v>
+        <v>14.85737868923684</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.08846653008682</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.02076276989001</v>
       </c>
       <c r="N16">
-        <v>5.206615238858858</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>12.99939788924759</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.269953771957222</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.03790246195138</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.93653965389247</v>
+        <v>25.94607410109914</v>
       </c>
       <c r="C17">
-        <v>21.24210100796566</v>
+        <v>21.97375962753207</v>
       </c>
       <c r="D17">
-        <v>8.586186294052627</v>
+        <v>8.586124726207045</v>
       </c>
       <c r="E17">
-        <v>10.38697387201667</v>
+        <v>10.50075299668758</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>39.49764859824202</v>
+        <v>34.60047310408424</v>
       </c>
       <c r="H17">
-        <v>5.849132485455173</v>
+        <v>5.838521580338011</v>
       </c>
       <c r="I17">
-        <v>2.534589816710751</v>
+        <v>2.587760050670303</v>
       </c>
       <c r="J17">
-        <v>12.05869446393209</v>
+        <v>11.29661087572705</v>
       </c>
       <c r="K17">
-        <v>17.49067544936594</v>
+        <v>15.47372568640308</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.54543285341811</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.46814222188095</v>
       </c>
       <c r="N17">
-        <v>5.328939633938966</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>13.01243815819346</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.407999821272198</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>13.05345487321125</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.51286192940825</v>
+        <v>25.52223101160121</v>
       </c>
       <c r="C18">
-        <v>20.53303036628936</v>
+        <v>21.38542602662836</v>
       </c>
       <c r="D18">
-        <v>8.47656672460417</v>
+        <v>8.476689059665937</v>
       </c>
       <c r="E18">
-        <v>9.660253487050456</v>
+        <v>9.759151637027742</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>42.57619204435518</v>
+        <v>36.99903767286198</v>
       </c>
       <c r="H18">
-        <v>4.617308090825238</v>
+        <v>4.602582868047039</v>
       </c>
       <c r="I18">
-        <v>2.503871718210159</v>
+        <v>2.554659713237694</v>
       </c>
       <c r="J18">
-        <v>12.74121859960006</v>
+        <v>11.92151490010347</v>
       </c>
       <c r="K18">
-        <v>18.8419544634976</v>
+        <v>16.51325623637737</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.30069470485781</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.27836691398488</v>
       </c>
       <c r="N18">
-        <v>5.663838361323674</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>13.31086310707313</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.758127145251056</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.35815748692517</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.27665897286149</v>
+        <v>25.28155952239859</v>
       </c>
       <c r="C19">
-        <v>19.90993866128342</v>
+        <v>20.9045040749066</v>
       </c>
       <c r="D19">
-        <v>8.442560076089627</v>
+        <v>8.441878070416596</v>
       </c>
       <c r="E19">
-        <v>9.001798357172202</v>
+        <v>9.046840053306383</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>46.69272846459131</v>
+        <v>40.25283570251166</v>
       </c>
       <c r="H19">
-        <v>3.157698401966949</v>
+        <v>3.140422588349609</v>
       </c>
       <c r="I19">
-        <v>2.524192158864328</v>
+        <v>2.573608901852833</v>
       </c>
       <c r="J19">
-        <v>13.63538732077428</v>
+        <v>12.62674334355159</v>
       </c>
       <c r="K19">
-        <v>20.59851863404557</v>
+        <v>17.80117192027625</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>14.23333344189346</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.29878160459356</v>
       </c>
       <c r="N19">
-        <v>6.233630598512748</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>13.81117271138636</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.341513966439466</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.86724406292427</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.58906903491583</v>
+        <v>25.5767816277424</v>
       </c>
       <c r="C20">
-        <v>19.50684886811879</v>
+        <v>20.70301324155771</v>
       </c>
       <c r="D20">
-        <v>8.623107953197477</v>
+        <v>8.618742122364658</v>
       </c>
       <c r="E20">
-        <v>8.621744019861817</v>
+        <v>8.508232379813837</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>53.78069961292174</v>
+        <v>45.96778268151079</v>
       </c>
       <c r="H20">
-        <v>1.589905452964623</v>
+        <v>1.591413987278008</v>
       </c>
       <c r="I20">
-        <v>2.69697226516103</v>
+        <v>2.713123726544468</v>
       </c>
       <c r="J20">
-        <v>15.15077450902854</v>
+        <v>13.58127539453484</v>
       </c>
       <c r="K20">
-        <v>23.52934577716231</v>
+        <v>19.8136859688796</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>15.63757436625555</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.97032889041327</v>
       </c>
       <c r="N20">
-        <v>7.341276206857141</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>14.83311063906105</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.458819554326138</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.90372318812749</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.15683747943947</v>
+        <v>27.11656386684835</v>
       </c>
       <c r="C21">
-        <v>20.63734452974585</v>
+        <v>21.73643159650402</v>
       </c>
       <c r="D21">
-        <v>9.185725848732055</v>
+        <v>9.173924743294783</v>
       </c>
       <c r="E21">
-        <v>8.93165016869378</v>
+        <v>8.735379017430335</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>56.9975772716918</v>
+        <v>49.39407827890055</v>
       </c>
       <c r="H21">
-        <v>1.906091817742976</v>
+        <v>1.84840130370034</v>
       </c>
       <c r="I21">
-        <v>3.017685062380225</v>
+        <v>2.970734828028688</v>
       </c>
       <c r="J21">
-        <v>15.74742568088111</v>
+        <v>12.65245473217081</v>
       </c>
       <c r="K21">
-        <v>24.42054864924706</v>
+        <v>19.77177140620822</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>15.41332722287206</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.21216405849481</v>
       </c>
       <c r="N21">
-        <v>7.689092696306946</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>15.6494948050594</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.775366462089858</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.71908269777319</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.14762603832332</v>
+        <v>28.08866716852923</v>
       </c>
       <c r="C22">
-        <v>21.36283347514558</v>
+        <v>22.38171679054075</v>
       </c>
       <c r="D22">
-        <v>9.540144536164659</v>
+        <v>9.523080012010736</v>
       </c>
       <c r="E22">
-        <v>9.14209081051631</v>
+        <v>8.899430715582197</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>58.89671741866829</v>
+        <v>51.53815650042461</v>
       </c>
       <c r="H22">
-        <v>2.132471960766062</v>
+        <v>2.038666912055882</v>
       </c>
       <c r="I22">
-        <v>3.218285683300939</v>
+        <v>3.129285166084451</v>
       </c>
       <c r="J22">
-        <v>16.10070380363759</v>
+        <v>11.96818328907653</v>
       </c>
       <c r="K22">
-        <v>24.93284572218447</v>
+        <v>19.67440832168266</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>15.21677609633466</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.32189984895689</v>
       </c>
       <c r="N22">
-        <v>7.858480543949644</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>16.1279771693121</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.923317513473635</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.19481690205722</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.6238766820552</v>
+        <v>27.57518458968818</v>
       </c>
       <c r="C23">
-        <v>20.9536760939692</v>
+        <v>22.04178974251197</v>
       </c>
       <c r="D23">
-        <v>9.352358428113563</v>
+        <v>9.338308421956814</v>
       </c>
       <c r="E23">
-        <v>9.031598528737041</v>
+        <v>8.815718472912755</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>58.02137103905207</v>
+        <v>50.40217478238391</v>
       </c>
       <c r="H23">
-        <v>2.013494548701352</v>
+        <v>1.940060272418881</v>
       </c>
       <c r="I23">
-        <v>3.108098815087913</v>
+        <v>3.041163889235525</v>
       </c>
       <c r="J23">
-        <v>15.94282962487889</v>
+        <v>12.50063541080319</v>
       </c>
       <c r="K23">
-        <v>24.72410551384594</v>
+        <v>19.83375724031671</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>15.39738582666208</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.34866639326425</v>
       </c>
       <c r="N23">
-        <v>7.767524012091943</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>15.87287112694959</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.845998989954793</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.94246214977683</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.55206606700173</v>
+        <v>25.53906902574055</v>
       </c>
       <c r="C24">
-        <v>19.39290431055185</v>
+        <v>20.60574186607935</v>
       </c>
       <c r="D24">
-        <v>8.614659546297187</v>
+        <v>8.610160969631297</v>
       </c>
       <c r="E24">
-        <v>8.606977957383133</v>
+        <v>8.479376567854565</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>54.40945291825241</v>
+        <v>46.4750245248543</v>
       </c>
       <c r="H24">
-        <v>1.566868313851501</v>
+        <v>1.569372855289093</v>
       </c>
       <c r="I24">
-        <v>2.691449933589487</v>
+        <v>2.704190424063681</v>
       </c>
       <c r="J24">
-        <v>15.29276874461913</v>
+        <v>13.70416661771848</v>
       </c>
       <c r="K24">
-        <v>23.82536818173435</v>
+        <v>20.04630839243143</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>15.80961117415707</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.14944480677985</v>
       </c>
       <c r="N24">
-        <v>7.416994859111325</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>14.87563753542168</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.536257880222654</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.94739568084239</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.12935739687354</v>
+        <v>23.14720225399534</v>
       </c>
       <c r="C25">
-        <v>17.59981266013135</v>
+        <v>18.6521618530482</v>
       </c>
       <c r="D25">
-        <v>7.761183378159009</v>
+        <v>7.763129429189839</v>
       </c>
       <c r="E25">
-        <v>8.139307877732138</v>
+        <v>8.067051703638102</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>50.34501488129612</v>
+        <v>43.36866016510365</v>
       </c>
       <c r="H25">
-        <v>2.089145799619806</v>
+        <v>2.03048617304912</v>
       </c>
       <c r="I25">
-        <v>2.760698411012164</v>
+        <v>2.689394072382032</v>
       </c>
       <c r="J25">
-        <v>14.58682911770462</v>
+        <v>13.34800332606744</v>
       </c>
       <c r="K25">
-        <v>22.84908807069687</v>
+        <v>19.66680215338956</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>15.80340212541636</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.49444437280476</v>
       </c>
       <c r="N25">
-        <v>7.023288368716361</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>13.73082407618936</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.163653678868699</v>
       </c>
       <c r="Q25">
+        <v>13.78952732544412</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
